--- a/DataFiles/HigherEdSoftware/sectorSoftware.xlsx
+++ b/DataFiles/HigherEdSoftware/sectorSoftware.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9962eaebe10960ef/Documents/GitHub/RelevanceRank/DataFiles/HigherEdSoftware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1053" documentId="11_F25DC773A252ABDACC10480FA9DE4D8A5BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551DC18D-FD79-4CBF-96C9-CC29AA638EA5}"/>
+  <xr:revisionPtr revIDLastSave="1204" documentId="11_F25DC773A252ABDACC10480FA9DE4D8A5BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D85818B4-82C5-4923-947C-869CCC70ADD0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Supported-Software'!$A$1:$J$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Supported-Software'!$A$1:$J$220</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="588">
   <si>
     <t>short_name</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Instructure</t>
   </si>
   <si>
-    <t>Maxon</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
     <t>https://info.flipgrid.com/</t>
   </si>
   <si>
@@ -221,12 +215,6 @@
     <t>cpe:2.3:a:adobe:illustrator:26.1.0:*:*:*:*:*:*:*</t>
   </si>
   <si>
-    <t>Iskysoft</t>
-  </si>
-  <si>
-    <t>imovie</t>
-  </si>
-  <si>
     <t>photoshop</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t>https://www.iskysoft.us/filmora-video-editor-mac.html</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/learning/?u=57692025</t>
-  </si>
-  <si>
     <t>MeshLab</t>
   </si>
   <si>
@@ -485,9 +470,6 @@
     <t>https://nvd.nist.gov/products/cpe/detail/1111308?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=google+chrome+96.0.4664.45&amp;status=FINAL</t>
   </si>
   <si>
-    <t>cinema 4d</t>
-  </si>
-  <si>
     <t>minitab</t>
   </si>
   <si>
@@ -947,15 +929,9 @@
     <t>https://nvd.nist.gov/products/cpe/detail/687218?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=hexagon+erdas+&amp;status=FINAL</t>
   </si>
   <si>
-    <t>Clarivate</t>
-  </si>
-  <si>
     <t>https://support.clarivate.com/Endnote/s/?language=en_US</t>
   </si>
   <si>
-    <t>endnote</t>
-  </si>
-  <si>
     <t>Starnet</t>
   </si>
   <si>
@@ -1181,39 +1157,18 @@
     <t>sas</t>
   </si>
   <si>
-    <t>turningpoint</t>
-  </si>
-  <si>
     <t>https://nvd.nist.gov/products/cpe/detail/414230?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=spss&amp;status=FINAL</t>
   </si>
   <si>
-    <t>Scientific Software International</t>
-  </si>
-  <si>
-    <t>HLM</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>https://ssicentral.com/index.php/products/hlm-general/</t>
   </si>
   <si>
-    <t>sigma_plot</t>
-  </si>
-  <si>
     <t>https://systatsoftware.com/</t>
   </si>
   <si>
-    <t>echo360</t>
-  </si>
-  <si>
     <t>https://echo360.com/</t>
   </si>
   <si>
-    <t>8.9.5</t>
-  </si>
-  <si>
     <t>winscp</t>
   </si>
   <si>
@@ -1767,6 +1722,87 @@
   </si>
   <si>
     <t>VT</t>
+  </si>
+  <si>
+    <t>banner_student</t>
+  </si>
+  <si>
+    <t>ellucian</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:ellucian:banner_student:8.5.1.2:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/698299?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=ellucian+banner&amp;status=FINAL</t>
+  </si>
+  <si>
+    <t>8.5.1.2</t>
+  </si>
+  <si>
+    <t>banner_web_tailor</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:ellucian:banner_web_tailor:8.9:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/894335?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=ellucian+banner&amp;status=FINAL</t>
+  </si>
+  <si>
+    <t>cylanceprotect</t>
+  </si>
+  <si>
+    <t>maple</t>
+  </si>
+  <si>
+    <t>cylance</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:cylance:cylanceprotect:1470:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/529570?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=Cylance+Protect&amp;status=FINAL</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:paloaltonetworks:globalprotect:5.0.0:*:*:*:*:windows:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/729099?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=Global+Protect&amp;status=FINAL</t>
+  </si>
+  <si>
+    <t>bestwebsoft</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:bestwebsoft:linkedin:1.0.0:*:*:*:*:wordpress:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/539351?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=linkedin&amp;status=FINAL</t>
+  </si>
+  <si>
+    <t>maple_t.a.</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:maplesoft:maple_t.a.:2016.0.6:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/914054?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=maple&amp;status=FINAL</t>
+  </si>
+  <si>
+    <t>mitel</t>
+  </si>
+  <si>
+    <t>connect_onsite</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:mitel:connect_onsite:-:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/products/cpe/detail/373153?namingFormat=2.3&amp;orderBy=CPEURI&amp;keyword=Mitel+Connect&amp;status=FINAL</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1811,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1868,7 +1904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,7 +1923,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1918,7 +1954,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1932,7 +1967,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1949,7 +1984,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -2236,16 +2270,16 @@
   <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="14" customWidth="1"/>
@@ -2255,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2264,22 +2298,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2293,10 +2327,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>27</v>
@@ -2316,22 +2350,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2342,22 +2376,22 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2368,19 +2402,19 @@
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2394,7 +2428,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -2420,7 +2454,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>47</v>
@@ -2431,7 +2465,7 @@
       <c r="G7" s="14">
         <v>2022.2</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2440,13 +2474,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>32</v>
@@ -2461,7 +2495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2506,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -2495,16 +2529,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2515,22 +2549,22 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2540,15 +2574,7 @@
       <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>148</v>
-      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -2557,14 +2583,9 @@
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="H13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2574,15 +2595,7 @@
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -2591,14 +2604,9 @@
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="D15" s="13"/>
       <c r="H15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2608,29 +2616,32 @@
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="13"/>
+      <c r="H16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="H17" s="6" t="s">
-        <v>65</v>
+      <c r="C17" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2638,11 +2649,11 @@
         <v>5</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="13"/>
       <c r="H18" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2662,19 +2673,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,7 +2697,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="H21" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,7 +2709,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="H22" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2706,749 +2717,743 @@
         <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" s="13"/>
       <c r="H23" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="31" t="s">
         <v>117</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="30" t="s">
-        <v>124</v>
+      <c r="H25" s="29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>147</v>
+        <v>131</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>162</v>
-      </c>
       <c r="H35" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>351</v>
+        <v>341</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H48" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>193</v>
-      </c>
       <c r="H49" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="14" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="H51" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="H54" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>267</v>
-      </c>
       <c r="H55" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>27</v>
@@ -3462,244 +3467,244 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F58" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>32</v>
@@ -3714,32 +3719,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>14</v>
@@ -3748,7 +3756,7 @@
         <v>38</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>34</v>
@@ -3765,33 +3773,33 @@
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>23</v>
@@ -3800,7 +3808,7 @@
         <v>49</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>47</v>
@@ -3811,1087 +3819,1045 @@
       <c r="G71" s="14">
         <v>2022.2</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H71" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="H72" s="33" t="s">
+      <c r="G73" s="14" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="H73" s="33" t="s">
-        <v>301</v>
+      <c r="H73" s="32" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E77" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="H77" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F77" s="12" t="s">
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="G78" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H78" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>490</v>
+        <v>474</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="H81" s="33" t="s">
-        <v>369</v>
+        <v>358</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>329</v>
+        <v>220</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="H84" s="22" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E86" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H86" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="H86" s="22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="H90" s="22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" s="3" t="s">
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="22" t="s">
-        <v>322</v>
+        <v>69</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>365</v>
+        <v>355</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H98" s="22" t="s">
-        <v>373</v>
+        <v>364</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>378</v>
+        <v>69</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>161</v>
+        <v>236</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>384</v>
+        <v>237</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>131</v>
+        <v>562</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>132</v>
+        <v>566</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="B120" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E120" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="F120" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G120" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H120" s="38" t="s">
-        <v>125</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H120" s="37" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>32</v>
@@ -4908,362 +4874,362 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E127" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H127" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="H127" s="22" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H132" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E138" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G138" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F138" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>162</v>
-      </c>
       <c r="H138" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="34"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="33"/>
     </row>
     <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B143" t="s">
+        <v>466</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G143" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>496</v>
-      </c>
       <c r="H143" s="6" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B144" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B145" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>32</v>
@@ -5280,1036 +5246,1428 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B146" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B147" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B148" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B149" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B150" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="H150" s="22" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="H150" s="21" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B151" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="H151" s="22" t="s">
-        <v>508</v>
+        <v>492</v>
+      </c>
+      <c r="H151" s="21" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B153" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E153" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H153" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="H153" s="22" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B154" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B155" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>511</v>
+        <v>496</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B156" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B157" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B158" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B159" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="H159" s="22" t="s">
-        <v>351</v>
+        <v>341</v>
+      </c>
+      <c r="H159" s="21" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B160" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B162" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B163" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>521</v>
+        <v>506</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B166" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B167" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B168" t="s">
         <v>442</v>
       </c>
-      <c r="B168" t="s">
-        <v>457</v>
-      </c>
       <c r="C168" s="3" t="s">
-        <v>525</v>
+        <v>510</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="F168" s="22" t="s">
-        <v>523</v>
+        <v>509</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>508</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B169" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>529</v>
+        <v>514</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B171" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B172" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B174" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B175" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B176" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B177" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B179" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B180" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B181" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B182" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B183" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B184" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B185" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B186" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B187" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="H187" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="H187" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B188" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="B189" s="39" t="s">
-        <v>550</v>
-      </c>
-      <c r="C189" s="40"/>
-      <c r="D189" s="40"/>
-      <c r="G189" s="41"/>
-      <c r="H189" s="42"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="C189" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E189" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="F189" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G189" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H189" s="40" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G202" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H202" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B203" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="C203" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H203" s="21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H205" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B191" s="12" t="s">
+      <c r="C206" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B208" s="12" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B192" s="12" t="s">
+      <c r="C208" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G208" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B209" s="12" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B193" s="12" t="s">
+      <c r="C209" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B210" s="12" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B194" s="12" t="s">
+      <c r="C210" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="H210" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B211" s="12" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B195" s="12" t="s">
+      <c r="C211" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="H211" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B212" s="12" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B196" s="12" t="s">
+      <c r="C212" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G212" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B213" s="12" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B197" s="12" t="s">
+      <c r="C213" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G213" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B215" s="12" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B210" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B212" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B213" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G216" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G217" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>466</v>
+        <v>451</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J220" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
     <sortCondition ref="C1:C23"/>
   </sortState>
@@ -6338,9 +6696,19 @@
     <hyperlink ref="F168" r:id="rId22" display="https://nvd.nist.gov/products/cpe/search/results?namingFormat=2.3&amp;orderBy=2.3&amp;keyword=cpe%3A2.3%3Aa%3Async%3Aoxygen_xml_author&amp;status=FINAL" xr:uid="{E2254908-6180-4CD7-8D91-9837DD8B9E5A}"/>
     <hyperlink ref="H175" r:id="rId23" xr:uid="{9B63BD05-9CC5-4A5C-9501-A590BBD86BA4}"/>
     <hyperlink ref="H187" r:id="rId24" xr:uid="{9A4A6EC9-4635-4F32-9664-534CED791890}"/>
+    <hyperlink ref="H205" r:id="rId25" xr:uid="{467814C1-D26F-4897-828B-C1D26EB0FD7E}"/>
+    <hyperlink ref="H113" r:id="rId26" xr:uid="{77D8672C-2662-46EB-B93B-FFB9F319CAA7}"/>
+    <hyperlink ref="F200" r:id="rId27" display="https://nvd.nist.gov/products/cpe/search/results?namingFormat=2.3&amp;orderBy=2.3&amp;keyword=cpe%3A2.3%3Aa%3Apaloaltonetworks%3Aglobalprotect&amp;status=FINAL" xr:uid="{1BB6B63B-8A97-45CC-99BF-E779AE2B4324}"/>
+    <hyperlink ref="F201" r:id="rId28" display="https://nvd.nist.gov/products/cpe/search/results?namingFormat=2.3&amp;orderBy=2.3&amp;keyword=cpe%3A2.3%3Aa%3Apaloaltonetworks%3Aglobalprotect&amp;status=FINAL" xr:uid="{207BD808-CD24-470D-B3F0-B44E64C736EE}"/>
+    <hyperlink ref="E17" r:id="rId29" display="https://nvd.nist.gov/products/cpe/search/results?namingFormat=2.3&amp;orderBy=2.3&amp;keyword=cpe%3A2.3%3Aa%3Abestwebsoft&amp;status=FINAL" xr:uid="{F9E795E7-75E6-4D90-8C90-4BE3F80865AD}"/>
+    <hyperlink ref="E203" r:id="rId30" display="https://nvd.nist.gov/products/cpe/search/results?namingFormat=2.3&amp;orderBy=2.3&amp;keyword=cpe%3A2.3%3Aa%3Abestwebsoft&amp;status=FINAL" xr:uid="{80A47DE9-CC10-48EC-9C02-9B96A49E9EB3}"/>
+    <hyperlink ref="H17" r:id="rId31" xr:uid="{519A8F37-4739-41B7-AD55-7FFD9BDD56C0}"/>
+    <hyperlink ref="H203" r:id="rId32" xr:uid="{4708753E-68EB-41EB-9EB1-09BB4B3C0066}"/>
+    <hyperlink ref="H210" r:id="rId33" xr:uid="{C7E17E0A-B60E-4616-A585-BC4C0AD15941}"/>
+    <hyperlink ref="H211" r:id="rId34" xr:uid="{505DB1DC-7A31-4492-9ACF-06F758EE0ADB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -6391,7 +6759,7 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>2183</v>
       </c>
     </row>
@@ -6400,15 +6768,15 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="28">
+        <v>290</v>
+      </c>
+      <c r="E3" s="27">
         <v>10483</v>
       </c>
     </row>
@@ -6417,15 +6785,15 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="28">
+        <v>250</v>
+      </c>
+      <c r="E4" s="27">
         <v>24286</v>
       </c>
     </row>
@@ -6434,15 +6802,15 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E5" s="28">
+        <v>398</v>
+      </c>
+      <c r="E5" s="27">
         <v>37024</v>
       </c>
     </row>
@@ -6451,15 +6819,15 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E6" s="28">
+        <v>428</v>
+      </c>
+      <c r="E6" s="27">
         <v>25628</v>
       </c>
     </row>
@@ -6468,15 +6836,15 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E7" s="28">
+        <v>559</v>
+      </c>
+      <c r="E7" s="27">
         <v>8939</v>
       </c>
     </row>

--- a/DataFiles/HigherEdSoftware/sectorSoftware.xlsx
+++ b/DataFiles/HigherEdSoftware/sectorSoftware.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9962eaebe10960ef/Documents/GitHub/RelevanceRank/DataFiles/HigherEdSoftware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1324" documentId="11_F25DC773A252ABDACC10480FA9DE4D8A5BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65CFB0BF-AF35-4FB9-87E7-5FB3E85D4D98}"/>
+  <xr:revisionPtr revIDLastSave="1326" documentId="11_F25DC773A252ABDACC10480FA9DE4D8A5BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23BBC31-67FA-49B5-9A74-A4146FF0BE1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORG_SOFTWARE" sheetId="1" r:id="rId1"/>
-    <sheet name="Organization" sheetId="2" r:id="rId2"/>
-    <sheet name="LOOKUP-ID" sheetId="4" r:id="rId3"/>
-    <sheet name="SOFTWARE" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Organization" sheetId="2" r:id="rId3"/>
+    <sheet name="LOOKUP-ID" sheetId="4" r:id="rId4"/>
+    <sheet name="SOFTWARE" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LOOKUP-ID'!$B$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOOKUP-ID'!$B$1:$G$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ORG_SOFTWARE!$A$1:$L$220</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SOFTWARE!$B$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SOFTWARE!$B$1:$G$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="888">
   <si>
     <t>CPE_ID</t>
   </si>
@@ -2089,6 +2090,701 @@
   </si>
   <si>
     <t>SOFT83</t>
+  </si>
+  <si>
+    <r>
+      <t>W&amp;M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Old Dominion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VA Tech</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Washington</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>and Lee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Students </t>
+  </si>
+  <si>
+    <t>8,939 </t>
+  </si>
+  <si>
+    <t>24,286 </t>
+  </si>
+  <si>
+    <t>37,024 </t>
+  </si>
+  <si>
+    <t>10,483 </t>
+  </si>
+  <si>
+    <t>25,628 </t>
+  </si>
+  <si>
+    <t>2,183 </t>
+  </si>
+  <si>
+    <t>CPE/Total </t>
+  </si>
+  <si>
+    <t>24/33 </t>
+  </si>
+  <si>
+    <t>47/69 </t>
+  </si>
+  <si>
+    <t>12/22 </t>
+  </si>
+  <si>
+    <t>23/31 </t>
+  </si>
+  <si>
+    <t>30/49 </t>
+  </si>
+  <si>
+    <t>13/23 </t>
+  </si>
+  <si>
+    <t>Adobe Acrobat Reader DC </t>
+  </si>
+  <si>
+    <t>Advance </t>
+  </si>
+  <si>
+    <t>Alertus Desktop Notification </t>
+  </si>
+  <si>
+    <t>AutoDesk </t>
+  </si>
+  <si>
+    <t>Banner Admin Production </t>
+  </si>
+  <si>
+    <t>Box </t>
+  </si>
+  <si>
+    <t>Box Drive </t>
+  </si>
+  <si>
+    <t>Chem BioDraw Ultra </t>
+  </si>
+  <si>
+    <t>Cylance Protect </t>
+  </si>
+  <si>
+    <t>DUO Mobile </t>
+  </si>
+  <si>
+    <t>Eduroam </t>
+  </si>
+  <si>
+    <t>Global Protect for MacOs </t>
+  </si>
+  <si>
+    <t>Global Protect (VPN) for Windows </t>
+  </si>
+  <si>
+    <t>Google Chrome </t>
+  </si>
+  <si>
+    <t>LinkedIn Learning </t>
+  </si>
+  <si>
+    <t>Maple </t>
+  </si>
+  <si>
+    <t>Matlab </t>
+  </si>
+  <si>
+    <t>Microsoft Office 365 </t>
+  </si>
+  <si>
+    <t>Microsoft Teams </t>
+  </si>
+  <si>
+    <t>Minitab for Windows </t>
+  </si>
+  <si>
+    <t>Minitab for Mac </t>
+  </si>
+  <si>
+    <t>Mitel Connect for Mac </t>
+  </si>
+  <si>
+    <t>Mitel Connect for Windows </t>
+  </si>
+  <si>
+    <t>Mozilla Firefox Mac </t>
+  </si>
+  <si>
+    <t>Mozilla Firefox Windows </t>
+  </si>
+  <si>
+    <t>Panopto </t>
+  </si>
+  <si>
+    <t>PCModel </t>
+  </si>
+  <si>
+    <t>SAS </t>
+  </si>
+  <si>
+    <t>SPSS </t>
+  </si>
+  <si>
+    <t>Stata </t>
+  </si>
+  <si>
+    <t>Wolfram Mathematica </t>
+  </si>
+  <si>
+    <t>Zoom </t>
+  </si>
+  <si>
+    <t>7-Zip </t>
+  </si>
+  <si>
+    <t>AGI/STK11 </t>
+  </si>
+  <si>
+    <t>Adobe Acrobat Professional </t>
+  </si>
+  <si>
+    <t>Adobe After Effects CC </t>
+  </si>
+  <si>
+    <t>Adobe Animate </t>
+  </si>
+  <si>
+    <t>Adobe Creative Cloud </t>
+  </si>
+  <si>
+    <t>Adobe Dreamweaver CC </t>
+  </si>
+  <si>
+    <t>Adobe Illustrator CC </t>
+  </si>
+  <si>
+    <t>Adobe InDesign CC </t>
+  </si>
+  <si>
+    <t>Adobe Lightroom CC </t>
+  </si>
+  <si>
+    <t>Adobe Photoshop CC </t>
+  </si>
+  <si>
+    <t>Adobe Premiere Pro CC </t>
+  </si>
+  <si>
+    <t>Adobe Reader </t>
+  </si>
+  <si>
+    <t>ArcGIS </t>
+  </si>
+  <si>
+    <t>Arena </t>
+  </si>
+  <si>
+    <t>Audacity </t>
+  </si>
+  <si>
+    <t>Autodesk AutoCAD </t>
+  </si>
+  <si>
+    <t>Autodesk Inventor </t>
+  </si>
+  <si>
+    <t>Crestron AirMedia </t>
+  </si>
+  <si>
+    <t>ERDAS Imagine </t>
+  </si>
+  <si>
+    <t>EndNote </t>
+  </si>
+  <si>
+    <t>FastX </t>
+  </si>
+  <si>
+    <t>FileZilla </t>
+  </si>
+  <si>
+    <t>Geometers Sketchpad </t>
+  </si>
+  <si>
+    <t>GlobalProtect VPN Client </t>
+  </si>
+  <si>
+    <t>Google Calendar </t>
+  </si>
+  <si>
+    <t>Google Drive </t>
+  </si>
+  <si>
+    <t>Google Hangouts </t>
+  </si>
+  <si>
+    <t>Java </t>
+  </si>
+  <si>
+    <t>LabVIEW </t>
+  </si>
+  <si>
+    <t>LiveSafe </t>
+  </si>
+  <si>
+    <t>MATLAB </t>
+  </si>
+  <si>
+    <t>MSC Patran/Nastran </t>
+  </si>
+  <si>
+    <t>MathCAD </t>
+  </si>
+  <si>
+    <t>Microsoft Office </t>
+  </si>
+  <si>
+    <t>Microsoft Project </t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server Standard </t>
+  </si>
+  <si>
+    <t>Microsoft SharePoint </t>
+  </si>
+  <si>
+    <t>Microsoft Silverlight </t>
+  </si>
+  <si>
+    <t>Microsoft Visio </t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server Standard </t>
+  </si>
+  <si>
+    <t>Minitab </t>
+  </si>
+  <si>
+    <t>Mozilla Firefox </t>
+  </si>
+  <si>
+    <t>NI Multisim </t>
+  </si>
+  <si>
+    <t>NVivo </t>
+  </si>
+  <si>
+    <t>Pearson POM/QM </t>
+  </si>
+  <si>
+    <t>RISA </t>
+  </si>
+  <si>
+    <t>Remote Desktop </t>
+  </si>
+  <si>
+    <t>Respondus </t>
+  </si>
+  <si>
+    <t>Respondus Lockdown Browser </t>
+  </si>
+  <si>
+    <t>SAS Annual License 9.4 M6 </t>
+  </si>
+  <si>
+    <t>SPSS Statistics  </t>
+  </si>
+  <si>
+    <t>SSI HLM 7 </t>
+  </si>
+  <si>
+    <t>Systat </t>
+  </si>
+  <si>
+    <t>Systat SigmaPlot </t>
+  </si>
+  <si>
+    <t>TurningPoint Student Response System </t>
+  </si>
+  <si>
+    <t>VLC Media Player </t>
+  </si>
+  <si>
+    <t>WebDrive </t>
+  </si>
+  <si>
+    <t>WebXtender </t>
+  </si>
+  <si>
+    <t>WinAuth </t>
+  </si>
+  <si>
+    <t>WinSCP </t>
+  </si>
+  <si>
+    <t>Windows 10 </t>
+  </si>
+  <si>
+    <t>X-Win32 </t>
+  </si>
+  <si>
+    <t>Autodesk </t>
+  </si>
+  <si>
+    <t>Duo D-100 Token </t>
+  </si>
+  <si>
+    <t>ESRI ArcGIS Desktop Education Edition </t>
+  </si>
+  <si>
+    <t>EquatIO </t>
+  </si>
+  <si>
+    <t>GRAHL PDF Annotator </t>
+  </si>
+  <si>
+    <t>Granta CES Edupack </t>
+  </si>
+  <si>
+    <t>MathWorks MATLAB </t>
+  </si>
+  <si>
+    <t>National Instruments LabVIEW </t>
+  </si>
+  <si>
+    <t>Qualitrcs (web-base) </t>
+  </si>
+  <si>
+    <t>QuestionPro (web-based) </t>
+  </si>
+  <si>
+    <t>Read&amp;Write </t>
+  </si>
+  <si>
+    <t>Rhino </t>
+  </si>
+  <si>
+    <t>SAS JMP Pro </t>
+  </si>
+  <si>
+    <t>SimaPro </t>
+  </si>
+  <si>
+    <t>Solidworks </t>
+  </si>
+  <si>
+    <t>Windows Virtualization Add-on License </t>
+  </si>
+  <si>
+    <t>Adobe Acrobat Reader Dc </t>
+  </si>
+  <si>
+    <t>Adobe Acrobat Pro Dc </t>
+  </si>
+  <si>
+    <t>Adobe Spark </t>
+  </si>
+  <si>
+    <t>Applicationxtender </t>
+  </si>
+  <si>
+    <t>Autodesk Maya </t>
+  </si>
+  <si>
+    <t>Citrix </t>
+  </si>
+  <si>
+    <t>Final Draft </t>
+  </si>
+  <si>
+    <t>Google File Stream </t>
+  </si>
+  <si>
+    <t>Grammarly </t>
+  </si>
+  <si>
+    <t>Ibm SPSS </t>
+  </si>
+  <si>
+    <t>Junos Pulse (Vpn) </t>
+  </si>
+  <si>
+    <t>Movie Magic </t>
+  </si>
+  <si>
+    <t>Power BI Pro </t>
+  </si>
+  <si>
+    <t>Snagit </t>
+  </si>
+  <si>
+    <t>Techsmith Camtasia </t>
+  </si>
+  <si>
+    <t>Toon Boom </t>
+  </si>
+  <si>
+    <t>Wrike </t>
+  </si>
+  <si>
+    <t>Adobe Fonts </t>
+  </si>
+  <si>
+    <t>Alertus   </t>
+  </si>
+  <si>
+    <t>ANSYS </t>
+  </si>
+  <si>
+    <t>ArcGIS Suite </t>
+  </si>
+  <si>
+    <t>Dedoose </t>
+  </si>
+  <si>
+    <t>Eventbrite </t>
+  </si>
+  <si>
+    <t>Firefox </t>
+  </si>
+  <si>
+    <t>IDL </t>
+  </si>
+  <si>
+    <t>LabView </t>
+  </si>
+  <si>
+    <t>LastPass  </t>
+  </si>
+  <si>
+    <t>MetaAccess </t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint for Mac </t>
+  </si>
+  <si>
+    <t>Microsoft Desktop Optimization Pack (MDOP) </t>
+  </si>
+  <si>
+    <t>Microsoft OneNote </t>
+  </si>
+  <si>
+    <t>Microsoft Project  </t>
+  </si>
+  <si>
+    <t>Microsoft Software &amp; Tools for Learning </t>
+  </si>
+  <si>
+    <t>Microsoft System Center Endpoint Protection </t>
+  </si>
+  <si>
+    <t>Microsoft Windows  </t>
+  </si>
+  <si>
+    <t>Network Setup Tool </t>
+  </si>
+  <si>
+    <t>Oracle Java   </t>
+  </si>
+  <si>
+    <t>OriginPro </t>
+  </si>
+  <si>
+    <t>oXygenXML </t>
+  </si>
+  <si>
+    <t>Perceptive Content </t>
+  </si>
+  <si>
+    <t>Personal Digital Certificate </t>
+  </si>
+  <si>
+    <t>Qualtrics Research Suite </t>
+  </si>
+  <si>
+    <t>Secure Deletion Shredder </t>
+  </si>
+  <si>
+    <t>SecureCRT </t>
+  </si>
+  <si>
+    <t>SecureFX </t>
+  </si>
+  <si>
+    <t>Smartsheet </t>
+  </si>
+  <si>
+    <t>SolidWorks </t>
+  </si>
+  <si>
+    <t>SPSS AMOS </t>
+  </si>
+  <si>
+    <t>StatTransfer  </t>
+  </si>
+  <si>
+    <t>UVA Anywhere </t>
+  </si>
+  <si>
+    <t>UVA Certificates Bundle </t>
+  </si>
+  <si>
+    <t>Visual Studio  </t>
+  </si>
+  <si>
+    <t>VMWare View (Hive) </t>
+  </si>
+  <si>
+    <t>VPN Client </t>
+  </si>
+  <si>
+    <t>Zoom  </t>
+  </si>
+  <si>
+    <t>After Effects </t>
+  </si>
+  <si>
+    <t>Illustrator </t>
+  </si>
+  <si>
+    <t>Photoshop </t>
+  </si>
+  <si>
+    <t>Premiere </t>
+  </si>
+  <si>
+    <t>Arc GIS </t>
+  </si>
+  <si>
+    <t>Canvas </t>
+  </si>
+  <si>
+    <t>Skype </t>
+  </si>
+  <si>
+    <t>Cinema 4D </t>
+  </si>
+  <si>
+    <t>Digication </t>
+  </si>
+  <si>
+    <t>Final Cut Pro </t>
+  </si>
+  <si>
+    <t>FlipGrid </t>
+  </si>
+  <si>
+    <t>iMovie </t>
+  </si>
+  <si>
+    <t>Linkedin Learning </t>
+  </si>
+  <si>
+    <t>MeshLab </t>
+  </si>
+  <si>
+    <t>Meta Shape </t>
+  </si>
+  <si>
+    <t>Microsoft Forms </t>
+  </si>
+  <si>
+    <t>Wordpress </t>
+  </si>
+  <si>
+    <t>Yuja </t>
+  </si>
+  <si>
+    <t>Poll Everywhere </t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2795,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,6 +2858,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2201,12 +2915,246 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF909090"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF909090"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF909090"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF909090"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF909090"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF909090"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF909090"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF909090"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF909090"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF909090"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF909090"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF909090"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF909090"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF909090"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2215,7 +3163,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2277,6 +3225,72 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -8544,6 +9558,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47D3DDE-65B9-41DA-8D1A-6EB642587F73}">
+  <dimension ref="A1:G70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="56"/>
+      <c r="B1" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="47" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>700</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>814</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>831</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="43" t="s">
+        <v>704</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>815</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>737</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>799</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>740</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>800</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>833</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>818</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>819</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>804</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>837</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>743</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>776</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>745</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>806</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>746</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>807</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>808</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>766</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>748</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>809</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="43" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>770</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>842</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>750</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>810</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>751</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="43" t="s">
+        <v>720</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>752</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>812</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>776</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>845</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="43" t="s">
+        <v>722</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>754</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>813</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>728</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="43" t="s">
+        <v>724</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="43" t="s">
+        <v>725</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>758</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>776</v>
+      </c>
+      <c r="G28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="43" t="s">
+        <v>727</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>759</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="43" t="s">
+        <v>827</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="43" t="s">
+        <v>728</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>760</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="43" t="s">
+        <v>828</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="43" t="s">
+        <v>829</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>761</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>762</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="43" t="s">
+        <v>732</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>854</v>
+      </c>
+      <c r="G34" s="52"/>
+    </row>
+    <row r="35" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="43" t="s">
+        <v>855</v>
+      </c>
+      <c r="G35" s="52"/>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>765</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="43" t="s">
+        <v>808</v>
+      </c>
+      <c r="G36" s="52"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="43" t="s">
+        <v>766</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="G37" s="52"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="43" t="s">
+        <v>767</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="43" t="s">
+        <v>768</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="43" t="s">
+        <v>857</v>
+      </c>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="43" t="s">
+        <v>858</v>
+      </c>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="43" t="s">
+        <v>770</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="43" t="s">
+        <v>771</v>
+      </c>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="43" t="s">
+        <v>860</v>
+      </c>
+      <c r="G42" s="52"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="G43" s="52"/>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="43" t="s">
+        <v>773</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="43" t="s">
+        <v>732</v>
+      </c>
+      <c r="G45" s="52"/>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="43" t="s">
+        <v>776</v>
+      </c>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="43" t="s">
+        <v>778</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="G49" s="52"/>
+    </row>
+    <row r="50" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="43" t="s">
+        <v>780</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="G51" s="52"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="43" t="s">
+        <v>782</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="52"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="52"/>
+    </row>
+    <row r="55" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="52"/>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="43" t="s">
+        <v>787</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="43" t="s">
+        <v>788</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="52"/>
+    </row>
+    <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="52"/>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="61"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="52"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="61"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="52"/>
+    </row>
+    <row r="64" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="52"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="43" t="s">
+        <v>794</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="52"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="52"/>
+    </row>
+    <row r="67" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="43" t="s">
+        <v>796</v>
+      </c>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="52"/>
+    </row>
+    <row r="68" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="61"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="52"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="43" t="s">
+        <v>797</v>
+      </c>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="52"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="62"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54" t="s">
+        <v>734</v>
+      </c>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A5:A70"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD6CA36-3E27-4570-8666-09F4F176C0CB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -8714,7 +10863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C388EEB7-9B47-42B1-A2AD-B63FE5EB3981}">
   <dimension ref="A1:G219"/>
   <sheetViews>
@@ -11697,11 +13846,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29571709-12D9-4488-A40E-D21020808159}">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
